--- a/biology/Médecine/Al-Juzjani/Al-Juzjani.xlsx
+++ b/biology/Médecine/Al-Juzjani/Al-Juzjani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abu Ubaid al-Juzjani, né en 980 et mort en 1037, est un médecin perse, originaire de Juzjan en Afghanistan et biographe d'Avicenne.
 Il est l’élève du célèbre Avicenne, qu’il rencontre à Gorgan. Il accompagne son maître à Ispahan, où il reste avec lui de nombreuses années. En fait, si on connaît si bien la vie du médecin et philosophe perse, c'est en bonne partie grâce à la biographie d'al-Juzjani, qui nous est parvenue. Elle est publiée en anglais par l'Unesco en 1950 sous le titre Avicenna, his Life and Work.
@@ -512,7 +524,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Sinoué s'est fortement inspiré de son œuvre pour écrire son livre Avicenne ou la route d'Ispahan.
 Noah Gordon y fait aussi référence dans son roman Le Médecin d'Ispahan.
